--- a/template/xlsx/template.xlsx
+++ b/template/xlsx/template.xlsx
@@ -201,7 +201,7 @@
     <t>{roweach $Table['Columns']}{$No}</t>
   </si>
   <si>
-    <t>{($Unsigned ? "unsigned " : "")  . $Type-&gt;getName() . $TypeDeclaration}</t>
+    <t>{($Unsigned ? "unsigned " : "")  . Doctrine\DBAL\Types\Type::lookupName($Type) . $TypeDeclaration}</t>
   </si>
   <si>
     <t>{implode(',', $Constraint)}</t>
@@ -494,79 +494,100 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -578,34 +599,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -959,11 +959,11 @@
       <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="15">
@@ -991,12 +991,12 @@
       <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1013,18 +1013,18 @@
       <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:13" customHeight="1" ht="15">
       <c r="A7" s="4" t="s">
@@ -1033,18 +1033,18 @@
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1067,17 +1067,17 @@
       <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="22" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="25" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="26"/>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="25" t="s">
         <v>9</v>
       </c>
       <c r="L10" s="26"/>
@@ -1095,20 +1095,20 @@
       <c r="D11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="27" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="29"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1128,20 +1128,20 @@
       <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="22"/>
+      <c r="I14" s="25" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="26"/>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="26"/>
@@ -1156,23 +1156,23 @@
       <c r="C15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="25" t="s">
+      <c r="J15" s="24"/>
+      <c r="K15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="29"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1180,6 +1180,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="E11:H11"/>
@@ -1193,24 +1198,13 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="65" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -1253,103 +1247,90 @@
       </c>
       <c r="B1" s="2"/>
       <c r="I1" s="3"/>
-      <c r="J1"/>
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:17" customHeight="1" ht="15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="33" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6"/>
-      <c r="J6"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="15">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7"/>
-      <c r="J7"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="15">
       <c r="A9" s="1" t="s">
@@ -1357,21 +1338,20 @@
       </c>
       <c r="B9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="15">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="9" t="s">
         <v>54</v>
       </c>
@@ -1393,25 +1373,25 @@
       <c r="M10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="15">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="5" t="s">
         <v>61</v>
       </c>
@@ -1433,18 +1413,17 @@
       <c r="M11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="N11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" customHeight="1" ht="15">
       <c r="I12" s="3"/>
-      <c r="J12"/>
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="15">
       <c r="A13" s="1" t="s">
@@ -1452,22 +1431,20 @@
       </c>
       <c r="B13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13"/>
-      <c r="J13"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="15">
       <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="10" t="s">
         <v>71</v>
       </c>
@@ -1477,21 +1454,20 @@
       <c r="I14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J14"/>
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="15">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="6" t="s">
         <v>76</v>
       </c>
@@ -1507,7 +1483,6 @@
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="15">
       <c r="I16" s="3"/>
-      <c r="J16"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="15">
       <c r="A17" s="1" t="s">
@@ -1515,31 +1490,29 @@
       </c>
       <c r="B17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17"/>
-      <c r="J17"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="15">
       <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="30" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="30" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
       <c r="L18" s="10" t="s">
         <v>83</v>
       </c>
@@ -1551,24 +1524,24 @@
       <c r="A19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="33" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="33" t="s">
+      <c r="H19" s="53"/>
+      <c r="I19" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="6" t="s">
         <v>88</v>
       </c>
@@ -1581,7 +1554,6 @@
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="15">
       <c r="I20" s="3"/>
-      <c r="J20"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="15">
       <c r="A21" s="1" t="s">
@@ -1589,31 +1561,29 @@
       </c>
       <c r="B21" s="2"/>
       <c r="H21" s="3"/>
-      <c r="I21"/>
-      <c r="J21"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="15">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>80</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="30" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="30" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="10" t="s">
         <v>83</v>
       </c>
@@ -1625,24 +1595,24 @@
       <c r="A23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="33" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="33" t="s">
+      <c r="H23" s="53"/>
+      <c r="I23" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="6" t="s">
         <v>88</v>
       </c>
@@ -1655,7 +1625,6 @@
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="15">
       <c r="I24" s="3"/>
-      <c r="J24"/>
     </row>
     <row r="25" spans="1:17" customHeight="1" ht="15">
       <c r="A25" s="1" t="s">
@@ -1663,54 +1632,52 @@
       </c>
       <c r="B25" s="2"/>
       <c r="H25" s="3"/>
-      <c r="I25"/>
-      <c r="J25"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="15">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="26"/>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49" t="s">
+      <c r="E26" s="31"/>
+      <c r="F26" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="48"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:17" customHeight="1" ht="15">
       <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="50" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
       <c r="N27" s="3" t="s">
         <v>19</v>
       </c>
@@ -1718,17 +1685,19 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
@@ -1745,35 +1714,27 @@
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="N11:P11"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="43" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>